--- a/medicine/Enfance/Pascal_Garnier_(écrivain)/Pascal_Garnier_(écrivain).xlsx
+++ b/medicine/Enfance/Pascal_Garnier_(écrivain)/Pascal_Garnier_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pascal_Garnier_(%C3%A9crivain)</t>
+          <t>Pascal_Garnier_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pascal Garnier est un écrivain français né le 4 juillet 1949 dans le 14e arrondissement de Paris et mort le 5 mars 2010 à Valence[1] (Drôme)[2]. Son œuvre se partage entre le roman policier et les ouvrages de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pascal Garnier est un écrivain français né le 4 juillet 1949 dans le 14e arrondissement de Paris et mort le 5 mars 2010 à Valence (Drôme). Son œuvre se partage entre le roman policier et les ouvrages de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pascal_Garnier_(%C3%A9crivain)</t>
+          <t>Pascal_Garnier_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une vie d'errance et de petits boulots, et un passage éclair par le rock 'n' roll, il a décidé à 35 ans de se lancer dans l'écriture. Son œuvre, abondante et multiforme, publiée chez plusieurs éditeurs, dont P.O.L, Flammarion, Nathan jeunesse et Zulma, oscille entre le roman noir et des ouvrages plus tendres destinés à la jeunesse. Ses romans policiers – dans la lignée des Simenon, Hardellet, Bove ou Calet auxquels on l’a souvent affilié – sont marqués par un humour grinçant.
 Depuis 2000, les éditions Zulma ont entamé la publication de ses œuvres complètes dans une nouvelle collection.
-En 2001, il obtient le prix du festival Polar dans la ville de Saint-Quentin-en-Yvelines pour Nul n'est à l'abri du succès et, en 2006, un grand prix de l'humour noir avec Flux[3].
+En 2001, il obtient le prix du festival Polar dans la ville de Saint-Quentin-en-Yvelines pour Nul n'est à l'abri du succès et, en 2006, un grand prix de l'humour noir avec Flux.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pascal_Garnier_(%C3%A9crivain)</t>
+          <t>Pascal_Garnier_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-La Solution esquimau, Fleuve noir no 11, 1996 ; Zulma, 2006
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Solution esquimau, Fleuve noir no 11, 1996 ; Zulma, 2006
 La Place du mort, Fleuve noir, 1997 ; réédition, Points, coll. « Roman noir » no P2946, 2013
 Les Insulaires, Fleuve Noir no 45, 1998
 Trop près du bord, Fleuve Noir no 63, 1999 ; réédition, Points, coll. « Roman noir » no P3156, 2013
@@ -563,9 +582,43 @@
 Le Grand Loin, Zulma, 2009
 Lune captive dans un œil mort, Zulma, 2009 ; réédition, Points, coll. « Roman noir » no P2558, 2011
 Le Grand Loin, Zulma, 2010
-Cartons, Zulma, 2012
-Littérature d'enfance et de jeunesse
-Un chat comme moi, Nathan, Arc en poche no 185, 1986 ; réédition, Éditions Lire c'est partir, 2001 ; réédition, Mango jeunesse, BiblioMango no 305, 2003
+Cartons, Zulma, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pascal_Garnier_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Garnier_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un chat comme moi, Nathan, Arc en poche no 185, 1986 ; réédition, Éditions Lire c'est partir, 2001 ; réédition, Mango jeunesse, BiblioMango no 305, 2003
 La Barrière, Éditions Folies d'encre, 1987 (illustrations Didier Gonord)
 Voleurs de parents, Syros, Souris noire no 22, 1988
 Âme comme magique, Nathan, Arc en poche no 131, 1989 (illustrations Monike Czarnecki) ; réédition, Éditions Lire c'est partir, 2002
@@ -602,45 +655,115 @@
 Le Chemin de sable, tome 5: Le Sablier retourné, Pocket junior no 1350, 2004
 Les Enfants de la nuit, Bayard jeunesse, Je bouquine no 173, 2006 ; réédition, Éditions Lire c'est partir, 2012
 Derrière l'écran, Bayard jeunesse, 2007
-M'sieur Victor, Bayard jeunesse, 2009
-Recueils de nouvelles
-Contes gouttes, Entreligne, 1985
+M'sieur Victor, Bayard jeunesse, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pascal_Garnier_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Garnier_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Contes gouttes, Entreligne, 1985
 L'Année sabbatique, P.O.L., 1986
 Surclassement, P.O.L., 1987
 T'avais qu'à pas vieillir, Verger éditeur, coll. Les Nouvelles du mercredi, 1997
 Attention enfants !, et autres histoires policières, Siloë, 1998
 Vieux Lions, dans Noir Été, Fleuve noir, 2000
-Vue imprenable sur l'autre, Zulma, 2002
-Nouvelle isolée
-Une fois trois, Verger éditeur, 1997</t>
+Vue imprenable sur l'autre, Zulma, 2002</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pascal_Garnier_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pascal_Garnier_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pascal_Garnier_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelle isolée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une fois trois, Verger éditeur, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pascal_Garnier_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Garnier_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Anthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les Insulaires et autres romans (noirs), Zulma, 2010 (Contient également : La Place du mort et Trop près du bord)</t>
         </is>
